--- a/EL_Electrical/Cellule chrono/Scheme.xlsx
+++ b/EL_Electrical/Cellule chrono/Scheme.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arthu\Documents\Ressources2020\EL_Electrical\Cellule chrono\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50D1171-0EC7-4BF8-9AB2-6988B296A816}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A1E9B0-6014-49AF-AFFF-AB41A7E76F40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{F520CC6F-F712-4636-9B07-CFBBFE9FABF0}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="54">
   <si>
     <t>TX1</t>
   </si>
@@ -190,6 +190,9 @@
   </si>
   <si>
     <t>MISO</t>
+  </si>
+  <si>
+    <t>|</t>
   </si>
 </sst>
 </file>
@@ -330,14 +333,14 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -353,6 +356,100 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>243840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="ZoneTexte 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06C4215D-FC0B-4B69-BCE8-A05389878AB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="975360" y="495300"/>
+          <a:ext cx="1310640" cy="2529840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="vert270" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1800"/>
+            <a:t>Main</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1800" baseline="0"/>
+            <a:t> Card</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1800" baseline="0"/>
+            <a:t>V2.0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1800" baseline="0"/>
+            <a:t>ARZ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -655,7 +752,7 @@
   <dimension ref="A1:AF20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA25" sqref="AA25"/>
+      <selection activeCell="AH9" sqref="AH9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -665,32 +762,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="15"/>
+      <c r="A1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14"/>
+      <c r="Z1" s="14"/>
       <c r="AB1" t="s">
         <v>33</v>
       </c>
@@ -705,27 +802,8 @@
       </c>
     </row>
     <row r="2" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" s="15"/>
+      <c r="A2" s="14"/>
+      <c r="Z2" s="14"/>
       <c r="AB2" t="s">
         <v>34</v>
       </c>
@@ -740,26 +818,33 @@
       </c>
     </row>
     <row r="3" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="15"/>
+      <c r="A3" s="14"/>
       <c r="I3" s="8"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z3" s="15"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z3" s="14"/>
       <c r="AB3" t="s">
         <v>35</v>
       </c>
@@ -774,79 +859,80 @@
       </c>
     </row>
     <row r="4" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="15"/>
+      <c r="A4" s="14"/>
       <c r="I4" s="8"/>
       <c r="M4" s="2"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="15"/>
+      <c r="N4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z4" s="14"/>
       <c r="AF4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="15"/>
+      <c r="A5" s="14"/>
       <c r="I5" s="8"/>
       <c r="M5" s="2"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="14" t="s">
-        <v>49</v>
-      </c>
       <c r="Y5" s="1"/>
-      <c r="Z5" s="15"/>
+      <c r="Z5" s="14"/>
       <c r="AB5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="15"/>
+      <c r="A6" s="14"/>
       <c r="I6" s="8"/>
       <c r="M6" s="2"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
+      <c r="N6" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>34</v>
+      </c>
       <c r="P6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
+      <c r="Q6" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="R6" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="S6" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="14" t="s">
+      <c r="T6" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="U6" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="V6" s="13" t="s">
         <v>51</v>
       </c>
+      <c r="W6" s="13" t="s">
+        <v>52</v>
+      </c>
       <c r="Y6" s="1"/>
-      <c r="Z6" s="15"/>
+      <c r="Z6" s="14"/>
       <c r="AB6" t="s">
         <v>39</v>
       </c>
@@ -855,7 +941,7 @@
       </c>
     </row>
     <row r="7" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="15"/>
+      <c r="A7" s="14"/>
       <c r="I7" s="8"/>
       <c r="M7" s="2"/>
       <c r="N7" s="10"/>
@@ -864,13 +950,10 @@
       <c r="Q7" s="12"/>
       <c r="R7" s="12"/>
       <c r="S7" s="9"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="Z7" s="14"/>
       <c r="AB7" t="s">
         <v>40</v>
       </c>
@@ -879,10 +962,10 @@
       </c>
     </row>
     <row r="8" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="15"/>
+      <c r="A8" s="14"/>
       <c r="I8" s="8"/>
       <c r="M8" s="4" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="N8" s="10" t="s">
         <v>29</v>
@@ -902,22 +985,22 @@
       <c r="S8" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="T8" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="U8" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="V8" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="W8" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z8" s="15"/>
+      <c r="T8" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="U8" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="V8" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="W8" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z8" s="14"/>
     </row>
     <row r="9" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="15"/>
+      <c r="A9" s="14"/>
       <c r="I9" s="8"/>
       <c r="J9" s="6" t="s">
         <v>0</v>
@@ -965,7 +1048,7 @@
         <v>14</v>
       </c>
       <c r="Y9" s="1"/>
-      <c r="Z9" s="15"/>
+      <c r="Z9" s="14"/>
       <c r="AB9" t="s">
         <v>46</v>
       </c>
@@ -974,11 +1057,13 @@
       </c>
     </row>
     <row r="10" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="15"/>
+      <c r="A10" s="14"/>
       <c r="I10" s="8"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
+      <c r="M10" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -991,7 +1076,7 @@
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
-      <c r="Z10" s="15"/>
+      <c r="Z10" s="14"/>
       <c r="AB10" t="s">
         <v>41</v>
       </c>
@@ -1000,14 +1085,14 @@
       </c>
     </row>
     <row r="11" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="15"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
+      <c r="M11" s="2"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
@@ -1017,15 +1102,15 @@
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
-      <c r="W11" s="13" t="s">
+      <c r="W11" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="X11" s="13"/>
-      <c r="Y11" s="13"/>
-      <c r="Z11" s="13"/>
+      <c r="X11" s="16"/>
+      <c r="Y11" s="16"/>
+      <c r="Z11" s="16"/>
     </row>
     <row r="12" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="15"/>
+      <c r="A12" s="14"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1033,7 +1118,7 @@
       <c r="J12" s="5"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
+      <c r="M12" s="2"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
@@ -1043,10 +1128,10 @@
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
-      <c r="W12" s="13"/>
-      <c r="X12" s="13"/>
-      <c r="Y12" s="13"/>
-      <c r="Z12" s="13"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="16"/>
+      <c r="Y12" s="16"/>
+      <c r="Z12" s="16"/>
       <c r="AB12" t="s">
         <v>42</v>
       </c>
@@ -1055,7 +1140,7 @@
       </c>
     </row>
     <row r="13" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="15"/>
+      <c r="A13" s="14"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1065,7 +1150,7 @@
       <c r="J13" s="5"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
+      <c r="M13" s="2"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -1075,13 +1160,13 @@
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
-      <c r="W13" s="13"/>
-      <c r="X13" s="13"/>
-      <c r="Y13" s="13"/>
-      <c r="Z13" s="13"/>
+      <c r="W13" s="16"/>
+      <c r="X13" s="16"/>
+      <c r="Y13" s="16"/>
+      <c r="Z13" s="16"/>
     </row>
     <row r="14" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="15"/>
+      <c r="A14" s="14"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="4" t="s">
@@ -1093,10 +1178,10 @@
       <c r="I14" s="3"/>
       <c r="J14" s="2"/>
       <c r="K14" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -1109,10 +1194,10 @@
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
-      <c r="Z14" s="15"/>
+      <c r="Z14" s="14"/>
     </row>
     <row r="15" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="15"/>
+      <c r="A15" s="14"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -1173,10 +1258,10 @@
         <v>27</v>
       </c>
       <c r="Y15" s="1"/>
-      <c r="Z15" s="15"/>
+      <c r="Z15" s="14"/>
     </row>
     <row r="16" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="15"/>
+      <c r="A16" s="14"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -1185,10 +1270,10 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="Z16" s="15"/>
+      <c r="Z16" s="14"/>
     </row>
     <row r="17" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="15"/>
+      <c r="A17" s="14"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1196,10 +1281,10 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="Z17" s="15"/>
+      <c r="Z17" s="14"/>
     </row>
     <row r="18" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="15"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1207,45 +1292,45 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="Z18" s="15"/>
+      <c r="Z18" s="14"/>
     </row>
     <row r="19" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="15"/>
+      <c r="A19" s="14"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="Z19" s="15"/>
+      <c r="Z19" s="14"/>
     </row>
     <row r="20" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="15"/>
-      <c r="S20" s="15"/>
-      <c r="T20" s="15"/>
-      <c r="U20" s="15"/>
-      <c r="V20" s="15"/>
-      <c r="W20" s="15"/>
-      <c r="X20" s="15"/>
-      <c r="Y20" s="15"/>
-      <c r="Z20" s="15"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="14"/>
+      <c r="X20" s="14"/>
+      <c r="Y20" s="14"/>
+      <c r="Z20" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1254,5 +1339,6 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/EL_Electrical/Cellule chrono/Scheme.xlsx
+++ b/EL_Electrical/Cellule chrono/Scheme.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arthu\Documents\Ressources2020\EL_Electrical\Cellule chrono\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A1E9B0-6014-49AF-AFFF-AB41A7E76F40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{798F2D1D-CC82-4F6D-9019-E654B899FB58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{F520CC6F-F712-4636-9B07-CFBBFE9FABF0}"/>
+    <workbookView xWindow="-11268" yWindow="576" windowWidth="23040" windowHeight="12204" xr2:uid="{F520CC6F-F712-4636-9B07-CFBBFE9FABF0}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="54">
   <si>
     <t>TX1</t>
   </si>
@@ -237,7 +237,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -259,18 +259,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,7 +287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -323,21 +311,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -752,7 +733,7 @@
   <dimension ref="A1:AF20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AH9" sqref="AH9"/>
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -762,39 +743,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14"/>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="14"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
       <c r="AB1" t="s">
         <v>33</v>
       </c>
-      <c r="AC1" s="11" t="s">
+      <c r="AC1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="AD1" s="11" t="s">
+      <c r="AD1" s="9" t="s">
         <v>32</v>
       </c>
       <c r="AF1" t="s">
@@ -802,15 +783,15 @@
       </c>
     </row>
     <row r="2" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14"/>
-      <c r="Z2" s="14"/>
+      <c r="A2" s="11"/>
+      <c r="Z2" s="11"/>
       <c r="AB2" t="s">
         <v>34</v>
       </c>
-      <c r="AC2" s="11" t="s">
+      <c r="AC2" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="AD2" s="11" t="s">
+      <c r="AD2" s="9" t="s">
         <v>32</v>
       </c>
       <c r="AF2" t="s">
@@ -818,7 +799,7 @@
       </c>
     </row>
     <row r="3" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14"/>
+      <c r="A3" s="11"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -844,14 +825,14 @@
       <c r="Y3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="Z3" s="14"/>
+      <c r="Z3" s="11"/>
       <c r="AB3" t="s">
         <v>35</v>
       </c>
-      <c r="AC3" s="11" t="s">
+      <c r="AC3" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="AD3" s="11" t="s">
+      <c r="AD3" s="9" t="s">
         <v>32</v>
       </c>
       <c r="AF3" t="s">
@@ -859,7 +840,7 @@
       </c>
     </row>
     <row r="4" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
+      <c r="A4" s="11"/>
       <c r="I4" s="8"/>
       <c r="M4" s="2"/>
       <c r="N4" s="4" t="s">
@@ -882,125 +863,95 @@
       <c r="Y4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Z4" s="14"/>
+      <c r="Z4" s="11"/>
       <c r="AF4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
+      <c r="A5" s="11"/>
       <c r="I5" s="8"/>
       <c r="M5" s="2"/>
       <c r="Y5" s="1"/>
-      <c r="Z5" s="14"/>
+      <c r="Z5" s="11"/>
       <c r="AB5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="14"/>
+      <c r="A6" s="11"/>
       <c r="I6" s="8"/>
       <c r="M6" s="2"/>
-      <c r="N6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="O6" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="P6" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q6" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="R6" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="S6" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="T6" s="13" t="s">
+      <c r="V6" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="U6" s="13" t="s">
+      <c r="W6" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="X6" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y6" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="V6" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="W6" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="14"/>
+      <c r="Z6" s="11"/>
       <c r="AB6" t="s">
         <v>39</v>
       </c>
-      <c r="AC6" s="11" t="s">
+      <c r="AC6" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="14"/>
+      <c r="A7" s="11"/>
       <c r="I7" s="8"/>
       <c r="M7" s="2"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
+      <c r="P7" s="12"/>
       <c r="Q7" s="12"/>
       <c r="R7" s="12"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="15"/>
-      <c r="Z7" s="14"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="W7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="X7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z7" s="11"/>
       <c r="AB7" t="s">
         <v>40</v>
       </c>
-      <c r="AC7" s="11" t="s">
+      <c r="AC7" s="9" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
+      <c r="A8" s="11"/>
       <c r="I8" s="8"/>
       <c r="M8" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="N8" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="O8" s="10" t="s">
-        <v>29</v>
-      </c>
       <c r="P8" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="Q8" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="R8" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="S8" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="T8" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="U8" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="V8" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="W8" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z8" s="14"/>
+      <c r="W8" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="X8" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="11"/>
     </row>
     <row r="9" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
+      <c r="A9" s="11"/>
       <c r="I9" s="8"/>
       <c r="J9" s="6" t="s">
         <v>0</v>
@@ -1047,8 +998,8 @@
       <c r="X9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="14"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="11"/>
       <c r="AB9" t="s">
         <v>46</v>
       </c>
@@ -1057,13 +1008,11 @@
       </c>
     </row>
     <row r="10" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="14"/>
+      <c r="A10" s="11"/>
       <c r="I10" s="8"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -1075,8 +1024,8 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="14"/>
+      <c r="Y10" s="12"/>
+      <c r="Z10" s="11"/>
       <c r="AB10" t="s">
         <v>41</v>
       </c>
@@ -1085,14 +1034,14 @@
       </c>
     </row>
     <row r="11" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="2"/>
+      <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
@@ -1102,15 +1051,15 @@
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
-      <c r="W11" s="16" t="s">
+      <c r="W11" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="X11" s="16"/>
-      <c r="Y11" s="16"/>
-      <c r="Z11" s="16"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13"/>
     </row>
     <row r="12" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="14"/>
+      <c r="A12" s="11"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1118,7 +1067,7 @@
       <c r="J12" s="5"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="2"/>
+      <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
@@ -1128,10 +1077,10 @@
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
-      <c r="W12" s="16"/>
-      <c r="X12" s="16"/>
-      <c r="Y12" s="16"/>
-      <c r="Z12" s="16"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="13"/>
       <c r="AB12" t="s">
         <v>42</v>
       </c>
@@ -1140,7 +1089,7 @@
       </c>
     </row>
     <row r="13" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
+      <c r="A13" s="11"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1150,7 +1099,7 @@
       <c r="J13" s="5"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="2"/>
+      <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -1160,13 +1109,13 @@
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
-      <c r="W13" s="16"/>
-      <c r="X13" s="16"/>
-      <c r="Y13" s="16"/>
-      <c r="Z13" s="16"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="13"/>
     </row>
     <row r="14" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
+      <c r="A14" s="11"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="4" t="s">
@@ -1180,8 +1129,8 @@
       <c r="K14" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -1192,12 +1141,14 @@
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="14"/>
+      <c r="X14" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y14" s="12"/>
+      <c r="Z14" s="11"/>
     </row>
     <row r="15" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="14"/>
+      <c r="A15" s="11"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -1258,10 +1209,10 @@
         <v>27</v>
       </c>
       <c r="Y15" s="1"/>
-      <c r="Z15" s="14"/>
+      <c r="Z15" s="11"/>
     </row>
     <row r="16" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="14"/>
+      <c r="A16" s="11"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -1270,10 +1221,10 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="Z16" s="14"/>
+      <c r="Z16" s="11"/>
     </row>
     <row r="17" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
+      <c r="A17" s="11"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1281,10 +1232,10 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="Z17" s="14"/>
+      <c r="Z17" s="11"/>
     </row>
     <row r="18" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="14"/>
+      <c r="A18" s="11"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1292,45 +1243,45 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="Z18" s="14"/>
+      <c r="Z18" s="11"/>
     </row>
     <row r="19" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="14"/>
+      <c r="A19" s="11"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="Z19" s="14"/>
+      <c r="Z19" s="11"/>
     </row>
     <row r="20" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="14"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="14"/>
-      <c r="V20" s="14"/>
-      <c r="W20" s="14"/>
-      <c r="X20" s="14"/>
-      <c r="Y20" s="14"/>
-      <c r="Z20" s="14"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/EL_Electrical/Cellule chrono/Scheme.xlsx
+++ b/EL_Electrical/Cellule chrono/Scheme.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arthu\Documents\Ressources2020\EL_Electrical\Cellule chrono\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{798F2D1D-CC82-4F6D-9019-E654B899FB58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EDEDD84-FE67-415F-9DEF-78784DE557F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11268" yWindow="576" windowWidth="23040" windowHeight="12204" xr2:uid="{F520CC6F-F712-4636-9B07-CFBBFE9FABF0}"/>
+    <workbookView xWindow="0" yWindow="576" windowWidth="23040" windowHeight="12204" xr2:uid="{F520CC6F-F712-4636-9B07-CFBBFE9FABF0}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="54">
   <si>
     <t>TX1</t>
   </si>
@@ -733,7 +733,7 @@
   <dimension ref="A1:AF20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+      <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -786,10 +786,10 @@
       <c r="A2" s="11"/>
       <c r="Z2" s="11"/>
       <c r="AB2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC2" s="9" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="AD2" s="9" t="s">
         <v>32</v>
@@ -805,32 +805,28 @@
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
-      <c r="N3" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
-      <c r="Q3" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
-      <c r="T3" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="T3" s="3"/>
       <c r="U3" s="3"/>
       <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
+      <c r="W3" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="X3" s="8"/>
       <c r="Y3" s="7" t="s">
         <v>30</v>
       </c>
       <c r="Z3" s="11"/>
       <c r="AB3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AC3" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AD3" s="9" t="s">
         <v>32</v>
@@ -843,27 +839,32 @@
       <c r="A4" s="11"/>
       <c r="I4" s="8"/>
       <c r="M4" s="2"/>
-      <c r="N4" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="N4" s="4"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
-      <c r="Q4" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
-      <c r="T4" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="T4" s="4"/>
       <c r="U4" s="4"/>
       <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
+      <c r="W4" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="X4" s="2"/>
       <c r="Y4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="Z4" s="11"/>
+      <c r="AB4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD4" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="AF4" t="s">
         <v>52</v>
       </c>
@@ -874,9 +875,6 @@
       <c r="M5" s="2"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="11"/>
-      <c r="AB5" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="6" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
@@ -896,10 +894,7 @@
       </c>
       <c r="Z6" s="11"/>
       <c r="AB6" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC6" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -926,10 +921,10 @@
       </c>
       <c r="Z7" s="11"/>
       <c r="AB7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AC7" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -949,6 +944,12 @@
       </c>
       <c r="Y8" s="12"/>
       <c r="Z8" s="11"/>
+      <c r="AB8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC8" s="9" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="9" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
@@ -1000,12 +1001,6 @@
       </c>
       <c r="Y9" s="12"/>
       <c r="Z9" s="11"/>
-      <c r="AB9" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="10" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
@@ -1027,10 +1022,10 @@
       <c r="Y10" s="12"/>
       <c r="Z10" s="11"/>
       <c r="AB10" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="AC10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1057,6 +1052,12 @@
       <c r="X11" s="13"/>
       <c r="Y11" s="13"/>
       <c r="Z11" s="13"/>
+      <c r="AB11" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="12" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
@@ -1081,12 +1082,6 @@
       <c r="X12" s="13"/>
       <c r="Y12" s="13"/>
       <c r="Z12" s="13"/>
-      <c r="AB12" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="13" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11"/>
@@ -1095,6 +1090,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="1"/>
@@ -1113,17 +1109,21 @@
       <c r="X13" s="13"/>
       <c r="Y13" s="13"/>
       <c r="Z13" s="13"/>
+      <c r="AB13" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="14" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
       <c r="I14" s="3"/>
       <c r="J14" s="2"/>
       <c r="K14" s="4" t="s">
@@ -1152,13 +1152,9 @@
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="3" t="s">
         <v>29</v>

--- a/EL_Electrical/Cellule chrono/Scheme.xlsx
+++ b/EL_Electrical/Cellule chrono/Scheme.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arthu\Documents\Ressources2020\EL_Electrical\Cellule chrono\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EDEDD84-FE67-415F-9DEF-78784DE557F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B985778-701C-4710-B925-FBB643D290CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="576" windowWidth="23040" windowHeight="12204" xr2:uid="{F520CC6F-F712-4636-9B07-CFBBFE9FABF0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{F520CC6F-F712-4636-9B07-CFBBFE9FABF0}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,13 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="54">
-  <si>
-    <t>TX1</t>
-  </si>
-  <si>
-    <t>RX0</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="64">
   <si>
     <t>RST</t>
   </si>
@@ -193,13 +187,49 @@
   </si>
   <si>
     <t>|</t>
+  </si>
+  <si>
+    <t>Sel</t>
+  </si>
+  <si>
+    <t>SD Card</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>Led</t>
+  </si>
+  <si>
+    <t>Start possibility</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>RX</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>S_In</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,8 +266,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -270,12 +306,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -283,11 +337,83 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -299,15 +425,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -317,11 +434,59 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -343,16 +508,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>243840</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -367,8 +532,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="975360" y="495300"/>
-          <a:ext cx="1310640" cy="2529840"/>
+          <a:off x="38100" y="769620"/>
+          <a:ext cx="1303020" cy="2278380"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -730,281 +895,351 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F136E75F-99A6-4EFF-B183-D9D614ACF065}">
-  <dimension ref="A1:AF20"/>
+  <dimension ref="A1:AG22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P32" sqref="P32"/>
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="26" width="4.77734375" customWidth="1"/>
-    <col min="29" max="29" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="27" width="4.77734375" customWidth="1"/>
+    <col min="30" max="30" width="20.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11"/>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
-      <c r="AB1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC1" s="9" t="s">
+    <row r="1" spans="1:33" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AC1" t="s">
         <v>31</v>
       </c>
-      <c r="AD1" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11"/>
-      <c r="Z2" s="11"/>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" s="9" t="s">
+      <c r="AD1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E2" s="26"/>
+      <c r="Z2" s="26"/>
+      <c r="AC2" t="s">
         <v>31</v>
       </c>
-      <c r="AD2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
+      <c r="AD2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG2" s="23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E3" s="26"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="M3" s="3"/>
+      <c r="N3" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
+      <c r="Q3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" s="13" t="s">
+        <v>28</v>
+      </c>
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="7" t="s">
+      <c r="U3" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z3" s="26"/>
+      <c r="AC3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="Z3" s="11"/>
-      <c r="AB3" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC3" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD3" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
-      <c r="I4" s="8"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
+      <c r="AG3" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E4" s="26"/>
+      <c r="G4" s="3"/>
+      <c r="I4" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
+      <c r="Q4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="R4" s="14" t="s">
+        <v>1</v>
+      </c>
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="4" t="s">
+      <c r="U4" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="26"/>
+      <c r="AC4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG4" s="23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="E5" s="26"/>
+      <c r="G5" s="3"/>
+      <c r="K5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="W5" s="1"/>
+      <c r="Z5" s="26"/>
+      <c r="AC5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD5" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E6" s="26"/>
+      <c r="G6" s="3"/>
+      <c r="K6" s="2"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z6" s="26"/>
+    </row>
+    <row r="7" spans="1:33" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E7" s="26"/>
+      <c r="G7" s="3"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" s="25"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R7" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="T7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="U7" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="V7" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="W7" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z7" s="26"/>
+      <c r="AC7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG7" s="23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="E8" s="26"/>
+      <c r="G8" s="5"/>
+      <c r="K8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="M8" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="O8" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="P8" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q8" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="R8" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="S8" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="U8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="V8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="W8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="X8" s="8"/>
+      <c r="Z8" s="26"/>
+      <c r="AC8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG8" s="23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E9" s="26"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M9" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="Z4" s="11"/>
-      <c r="AB4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC4" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD4" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
-      <c r="I5" s="8"/>
-      <c r="M5" s="2"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="11"/>
-    </row>
-    <row r="6" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
-      <c r="I6" s="8"/>
-      <c r="M6" s="2"/>
-      <c r="V6" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="W6" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="X6" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y6" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z6" s="11"/>
-      <c r="AB6" t="s">
+      <c r="N9" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="T9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="V9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="X9" s="8"/>
+      <c r="Z9" s="26"/>
+      <c r="AC9" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="7" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
-      <c r="I7" s="8"/>
-      <c r="M7" s="2"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="W7" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="X7" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y7" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z7" s="11"/>
-      <c r="AB7" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC7" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
-      <c r="I8" s="8"/>
-      <c r="M8" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="P8" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="W8" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="X8" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="11"/>
-      <c r="AB8" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC8" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="R9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="S9" s="6" t="s">
+      <c r="AD9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG9" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="T9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="U9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="V9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="W9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="X9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y9" s="12"/>
-      <c r="Z9" s="11"/>
-    </row>
-    <row r="10" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
-      <c r="I10" s="8"/>
+    </row>
+    <row r="10" spans="1:33" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="26"/>
+      <c r="G10" s="5"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -1017,23 +1252,18 @@
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="12"/>
-      <c r="Z10" s="11"/>
-      <c r="AB10" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11"/>
+      <c r="X10" s="8"/>
+      <c r="Z10" s="26"/>
+    </row>
+    <row r="11" spans="1:33" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="26"/>
+      <c r="G11" s="5"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -1044,28 +1274,31 @@
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="X11" s="13"/>
-      <c r="Y11" s="13"/>
-      <c r="Z11" s="13"/>
-      <c r="AB11" t="s">
-        <v>41</v>
-      </c>
+      <c r="U11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
+      <c r="Z11" s="27"/>
+      <c r="AA11" s="1"/>
       <c r="AC11" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="12" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
+      <c r="AG11" s="23"/>
+    </row>
+    <row r="12" spans="1:33" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
+      <c r="E12" s="27"/>
+      <c r="G12" s="5"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -1076,23 +1309,29 @@
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="13"/>
-      <c r="X12" s="13"/>
-      <c r="Y12" s="13"/>
-      <c r="Z12" s="13"/>
-    </row>
-    <row r="13" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="11"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Z12" s="27"/>
+      <c r="AA12" s="1"/>
+      <c r="AC12" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG12" s="23"/>
+    </row>
+    <row r="13" spans="1:33" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
+      <c r="E13" s="27"/>
+      <c r="G13" s="5"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -1103,32 +1342,23 @@
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="13"/>
-      <c r="X13" s="13"/>
-      <c r="Y13" s="13"/>
-      <c r="Z13" s="13"/>
-      <c r="AB13" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="11"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9"/>
+      <c r="Z13" s="27"/>
+      <c r="AA13" s="1"/>
+    </row>
+    <row r="14" spans="1:33" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="E14" s="27"/>
+      <c r="G14" s="3"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -1139,150 +1369,213 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y14" s="12"/>
-      <c r="Z14" s="11"/>
-    </row>
-    <row r="15" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="11"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J15" s="6" t="s">
+      <c r="V14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Z14" s="27"/>
+      <c r="AA14" s="1"/>
+      <c r="AC14" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG14" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="K15" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="M15" s="6" t="s">
+    </row>
+    <row r="15" spans="1:33" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E15" s="26"/>
+      <c r="G15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q15" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="N15" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="O15" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="P15" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q15" s="6" t="s">
+      <c r="R15" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="R15" s="6" t="s">
+      <c r="S15" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="S15" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="T15" s="6" t="s">
+      <c r="T15" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="U15" s="6" t="s">
+      <c r="U15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="V15" s="6" t="s">
+      <c r="V15" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="W15" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="X15" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="11"/>
-    </row>
-    <row r="16" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="11"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="Z16" s="11"/>
-    </row>
-    <row r="17" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="11"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="Z17" s="11"/>
-    </row>
-    <row r="18" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="11"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="Z18" s="11"/>
-    </row>
-    <row r="19" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="11"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="Z19" s="11"/>
-    </row>
-    <row r="20" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="11"/>
-      <c r="X20" s="11"/>
-      <c r="Y20" s="11"/>
-      <c r="Z20" s="11"/>
+      <c r="W15" s="1"/>
+      <c r="Z15" s="26"/>
+    </row>
+    <row r="16" spans="1:33" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E16" s="26"/>
+      <c r="G16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" s="18"/>
+      <c r="K16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L16" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R16" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z16" s="26"/>
+      <c r="AC16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG16" s="23"/>
+    </row>
+    <row r="17" spans="5:33" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E17" s="26"/>
+      <c r="G17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="L17" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="N17" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="O17" s="12"/>
+      <c r="Q17" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="R17" s="25"/>
+      <c r="Z17" s="26"/>
+      <c r="AC17" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG17" s="23"/>
+    </row>
+    <row r="18" spans="5:33" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="26"/>
+      <c r="J18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z18" s="26"/>
+      <c r="AC18" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG18" s="23"/>
+    </row>
+    <row r="19" spans="5:33" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="26"/>
+      <c r="Z19" s="26"/>
+      <c r="AC19" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG19" s="23"/>
+    </row>
+    <row r="20" spans="5:33" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="26"/>
+      <c r="S20" s="26"/>
+      <c r="T20" s="26"/>
+      <c r="U20" s="26"/>
+      <c r="V20" s="26"/>
+      <c r="W20" s="26"/>
+      <c r="X20" s="26"/>
+      <c r="Y20" s="26"/>
+      <c r="Z20" s="26"/>
+      <c r="AG20" s="23"/>
+    </row>
+    <row r="21" spans="5:33" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AG21" s="23"/>
+    </row>
+    <row r="22" spans="5:33" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AG22" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="W11:Z13"/>
-  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/EL_Electrical/Cellule chrono/Scheme.xlsx
+++ b/EL_Electrical/Cellule chrono/Scheme.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arthu\Documents\Ressources2020\EL_Electrical\Cellule chrono\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B985778-701C-4710-B925-FBB643D290CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D48611-6BF0-493D-A797-26AD698653F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{F520CC6F-F712-4636-9B07-CFBBFE9FABF0}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="65">
   <si>
     <t>RST</t>
   </si>
@@ -223,6 +224,9 @@
   </si>
   <si>
     <t>S_In</t>
+  </si>
+  <si>
+    <t>VCC</t>
   </si>
 </sst>
 </file>
@@ -273,7 +277,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -328,8 +332,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -409,11 +419,22 @@
         <color auto="1"/>
       </diagonal>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -487,6 +508,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -508,6 +540,100 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="ZoneTexte 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06C4215D-FC0B-4B69-BCE8-A05389878AB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8793480" y="5242560"/>
+          <a:ext cx="1303020" cy="2278380"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="vert270" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1800"/>
+            <a:t>Main</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1800" baseline="0"/>
+            <a:t> Card</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1800" baseline="0"/>
+            <a:t>V3.0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1800" baseline="0"/>
+            <a:t>ARZ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>3</xdr:row>
@@ -524,7 +650,7 @@
         <xdr:cNvPr id="2" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06C4215D-FC0B-4B69-BCE8-A05389878AB0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AA3FFB4-1287-48A6-9234-D3B0F95D3967}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -895,10 +1021,1259 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F136E75F-99A6-4EFF-B183-D9D614ACF065}">
+  <dimension ref="A1:AZ43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="AK24" sqref="AK24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="46" width="4.77734375" customWidth="1"/>
+    <col min="49" max="49" width="20.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:52" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AV1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AW1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AX1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AZ1" s="23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:52" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="29"/>
+      <c r="AV2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AW2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AX2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AZ2" s="23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:52" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF3" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ3" s="3"/>
+      <c r="AK3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL3" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM3" s="3"/>
+      <c r="AN3" s="3"/>
+      <c r="AV3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AW3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AX3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AZ3" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:52" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="29"/>
+      <c r="W4" s="29"/>
+      <c r="AA4" s="3"/>
+      <c r="AC4" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF4" s="4"/>
+      <c r="AG4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH4" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL4" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM4" s="4"/>
+      <c r="AN4" s="4"/>
+      <c r="AV4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AW4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AX4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AZ4" s="23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:52" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="37"/>
+      <c r="T5" s="37"/>
+      <c r="U5" s="35"/>
+      <c r="V5" s="29"/>
+      <c r="W5" s="29"/>
+      <c r="X5" s="29"/>
+      <c r="AA5" s="3"/>
+      <c r="AE5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AQ5" s="1"/>
+      <c r="AV5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW5" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:52" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="8"/>
+      <c r="C6" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="37"/>
+      <c r="U6" s="35"/>
+      <c r="V6" s="29"/>
+      <c r="W6" s="29"/>
+      <c r="X6" s="29"/>
+      <c r="AA6" s="3"/>
+      <c r="AE6" s="2"/>
+      <c r="AH6" s="8"/>
+      <c r="AI6" s="8"/>
+      <c r="AJ6" s="8"/>
+      <c r="AK6" s="8"/>
+      <c r="AL6" s="8"/>
+      <c r="AM6" s="8"/>
+      <c r="AN6" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:52" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="8"/>
+      <c r="C7" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="37"/>
+      <c r="U7" s="35"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="29"/>
+      <c r="X7" s="29"/>
+      <c r="AA7" s="3"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG7" s="25"/>
+      <c r="AH7" s="8"/>
+      <c r="AI7" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ7" s="25"/>
+      <c r="AK7" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL7" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM7" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO7" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP7" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AQ7" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ7" s="23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:52" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="8"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="37"/>
+      <c r="U8" s="35"/>
+      <c r="V8" s="29"/>
+      <c r="W8" s="29"/>
+      <c r="X8" s="29"/>
+      <c r="AA8" s="5"/>
+      <c r="AE8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF8" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG8" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI8" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ8" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="AK8" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL8" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM8" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AR8" s="8"/>
+      <c r="AV8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AW8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AZ8" s="23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="8"/>
+      <c r="G9" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="T9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="W9" s="29"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC9" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD9" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF9" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG9" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH9" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM9" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AP9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR9" s="8"/>
+      <c r="AV9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AW9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AZ9" s="23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="8"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="W10" s="29"/>
+      <c r="AA10" s="5"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="1"/>
+      <c r="AI10" s="1"/>
+      <c r="AJ10" s="1"/>
+      <c r="AK10" s="1"/>
+      <c r="AL10" s="1"/>
+      <c r="AM10" s="1"/>
+      <c r="AN10" s="1"/>
+      <c r="AO10" s="1"/>
+      <c r="AP10" s="1"/>
+      <c r="AR10" s="8"/>
+    </row>
+    <row r="11" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="7"/>
+      <c r="T11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+      <c r="AA11" s="5"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="1"/>
+      <c r="AI11" s="1"/>
+      <c r="AJ11" s="1"/>
+      <c r="AK11" s="1"/>
+      <c r="AL11" s="1"/>
+      <c r="AM11" s="1"/>
+      <c r="AN11" s="1"/>
+      <c r="AO11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AP11" s="9"/>
+      <c r="AQ11" s="9"/>
+      <c r="AR11" s="9"/>
+      <c r="AT11" s="1"/>
+      <c r="AV11" t="s">
+        <v>44</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ11" s="23"/>
+    </row>
+    <row r="12" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="7"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="AA12" s="5"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="1"/>
+      <c r="AI12" s="1"/>
+      <c r="AJ12" s="1"/>
+      <c r="AK12" s="1"/>
+      <c r="AL12" s="1"/>
+      <c r="AM12" s="1"/>
+      <c r="AN12" s="1"/>
+      <c r="AO12" s="9"/>
+      <c r="AP12" s="9"/>
+      <c r="AQ12" s="9"/>
+      <c r="AR12" s="9"/>
+      <c r="AT12" s="1"/>
+      <c r="AV12" t="s">
+        <v>39</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ12" s="23"/>
+    </row>
+    <row r="13" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="7"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
+      <c r="AA13" s="5"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
+      <c r="AH13" s="1"/>
+      <c r="AI13" s="1"/>
+      <c r="AJ13" s="1"/>
+      <c r="AK13" s="1"/>
+      <c r="AL13" s="1"/>
+      <c r="AM13" s="1"/>
+      <c r="AN13" s="1"/>
+      <c r="AO13" s="9"/>
+      <c r="AP13" s="9"/>
+      <c r="AQ13" s="9"/>
+      <c r="AR13" s="9"/>
+      <c r="AT13" s="1"/>
+    </row>
+    <row r="14" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="AA14" s="3"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="1"/>
+      <c r="AI14" s="1"/>
+      <c r="AJ14" s="1"/>
+      <c r="AK14" s="1"/>
+      <c r="AL14" s="1"/>
+      <c r="AM14" s="1"/>
+      <c r="AN14" s="1"/>
+      <c r="AO14" s="1"/>
+      <c r="AP14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AQ14" s="8"/>
+      <c r="AR14" s="8"/>
+      <c r="AT14" s="1"/>
+      <c r="AV14" t="s">
+        <v>40</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>46</v>
+      </c>
+      <c r="AZ14" s="23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="P15" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q15" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="R15" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="S15" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="T15" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="U15" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="V15" s="1"/>
+      <c r="AA15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC15" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD15" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF15" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH15" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ15" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK15" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL15" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM15" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="AN15" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="AO15" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="AP15" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="AQ15" s="1"/>
+    </row>
+    <row r="16" spans="1:52" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AA16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD16" s="18"/>
+      <c r="AE16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF16" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL16" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>53</v>
+      </c>
+      <c r="AZ16" s="23"/>
+    </row>
+    <row r="17" spans="3:52" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AA17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD17" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE17" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF17" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH17" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI17" s="12"/>
+      <c r="AK17" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL17" s="25"/>
+      <c r="AV17" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW17" t="s">
+        <v>53</v>
+      </c>
+      <c r="AZ17" s="23"/>
+    </row>
+    <row r="18" spans="3:52" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="AD18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="5"/>
+      <c r="AG18" s="5"/>
+      <c r="AH18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ18" s="5"/>
+      <c r="AK18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AV18" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW18" t="s">
+        <v>53</v>
+      </c>
+      <c r="AZ18" s="23"/>
+    </row>
+    <row r="19" spans="3:52" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AV19" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW19" t="s">
+        <v>53</v>
+      </c>
+      <c r="AZ19" s="23"/>
+    </row>
+    <row r="20" spans="3:52" ht="19.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="29"/>
+      <c r="T20" s="29"/>
+      <c r="U20" s="29"/>
+      <c r="V20" s="29"/>
+      <c r="W20" s="29"/>
+      <c r="AZ20" s="23"/>
+    </row>
+    <row r="21" spans="3:52" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="29"/>
+      <c r="T21" s="29"/>
+      <c r="U21" s="29"/>
+      <c r="V21" s="29"/>
+      <c r="W21" s="29"/>
+      <c r="AZ21" s="23"/>
+    </row>
+    <row r="22" spans="3:52" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" s="5"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="N22" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q22" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="R22" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="S22" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="T22" s="29"/>
+      <c r="U22" s="29"/>
+      <c r="V22" s="29"/>
+      <c r="W22" s="29"/>
+      <c r="AZ22" s="23"/>
+    </row>
+    <row r="23" spans="3:52" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="34"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="39"/>
+      <c r="R23" s="39"/>
+      <c r="S23" s="39"/>
+      <c r="T23" s="29"/>
+      <c r="U23" s="29"/>
+      <c r="V23" s="29"/>
+      <c r="W23" s="29"/>
+    </row>
+    <row r="24" spans="3:52" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="34"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="39"/>
+      <c r="S24" s="39"/>
+      <c r="T24" s="29"/>
+      <c r="U24" s="29"/>
+      <c r="V24" s="29"/>
+      <c r="W24" s="29"/>
+    </row>
+    <row r="25" spans="3:52" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C25" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="39"/>
+      <c r="R25" s="39"/>
+      <c r="S25" s="39"/>
+      <c r="T25" s="29"/>
+      <c r="U25" s="29"/>
+      <c r="V25" s="29"/>
+      <c r="W25" s="29"/>
+    </row>
+    <row r="26" spans="3:52" ht="19.8" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="F26" s="5"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="39"/>
+      <c r="Q26" s="39"/>
+      <c r="R26" s="39"/>
+      <c r="S26" s="39"/>
+      <c r="T26" s="29"/>
+      <c r="U26" s="29"/>
+      <c r="V26" s="29"/>
+      <c r="W26" s="29"/>
+    </row>
+    <row r="27" spans="3:52" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F27" s="5"/>
+      <c r="G27" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L27" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="N27" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O27" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="P27" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q27" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="R27" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="S27" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="T27" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="U27" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="W27" s="29"/>
+    </row>
+    <row r="28" spans="3:52" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="W28" s="29"/>
+    </row>
+    <row r="29" spans="3:52" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="U29" s="9"/>
+      <c r="V29" s="9"/>
+      <c r="W29" s="9"/>
+    </row>
+    <row r="30" spans="3:52" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="9"/>
+      <c r="U30" s="9"/>
+      <c r="V30" s="9"/>
+      <c r="W30" s="9"/>
+    </row>
+    <row r="31" spans="3:52" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D31" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="9"/>
+      <c r="U31" s="9"/>
+      <c r="V31" s="9"/>
+      <c r="W31" s="9"/>
+    </row>
+    <row r="32" spans="3:52" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D32" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+    </row>
+    <row r="33" spans="4:22" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K33" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L33" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M33" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N33" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="O33" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="P33" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q33" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="R33" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="S33" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="T33" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="U33" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="V33" s="1"/>
+    </row>
+    <row r="34" spans="4:22" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="4:22" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="4:22" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="4:22" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="4:22" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="4:22" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="4:22" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="4:22" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="4:22" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="4:22" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3666C45-5D22-41B6-A118-5659B60AA8D3}">
   <dimension ref="A1:AG22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -907,7 +2282,7 @@
     <col min="30" max="30" width="20.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="E1" s="26"/>
       <c r="F1" s="26"/>
       <c r="G1" s="26"/>
@@ -943,7 +2318,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E2" s="26"/>
       <c r="Z2" s="26"/>
       <c r="AC2" t="s">
@@ -959,7 +2334,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:33" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E3" s="26"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -1006,7 +2381,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:33" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E4" s="26"/>
       <c r="G4" s="3"/>
       <c r="I4" s="14" t="s">
@@ -1052,7 +2427,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:33" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="E5" s="26"/>
       <c r="G5" s="3"/>
       <c r="K5" s="4" t="s">
@@ -1067,7 +2442,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:33" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E6" s="26"/>
       <c r="G6" s="3"/>
       <c r="K6" s="2"/>
@@ -1082,7 +2457,7 @@
       </c>
       <c r="Z6" s="26"/>
     </row>
-    <row r="7" spans="1:33" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:33" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E7" s="26"/>
       <c r="G7" s="3"/>
       <c r="K7" s="2"/>
@@ -1124,7 +2499,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:33" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="E8" s="26"/>
       <c r="G8" s="5"/>
       <c r="K8" s="4" t="s">
@@ -1175,7 +2550,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:33" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="E9" s="26"/>
       <c r="G9" s="5"/>
       <c r="H9" s="9" t="s">
@@ -1235,7 +2610,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:33" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="E10" s="26"/>
       <c r="G10" s="5"/>
       <c r="I10" s="1"/>
@@ -1255,7 +2630,7 @@
       <c r="X10" s="8"/>
       <c r="Z10" s="26"/>
     </row>
-    <row r="11" spans="1:33" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1290,7 +2665,7 @@
       </c>
       <c r="AG11" s="23"/>
     </row>
-    <row r="12" spans="1:33" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1323,7 +2698,7 @@
       </c>
       <c r="AG12" s="23"/>
     </row>
-    <row r="13" spans="1:33" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1349,7 +2724,7 @@
       <c r="Z13" s="27"/>
       <c r="AA13" s="1"/>
     </row>
-    <row r="14" spans="1:33" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1386,7 +2761,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:33" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="E15" s="26"/>
       <c r="G15" s="3" t="s">
         <v>27</v>
@@ -1439,7 +2814,7 @@
       <c r="W15" s="1"/>
       <c r="Z15" s="26"/>
     </row>
-    <row r="16" spans="1:33" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E16" s="26"/>
       <c r="G16" s="3" t="s">
         <v>51</v>
@@ -1469,7 +2844,7 @@
       </c>
       <c r="AG16" s="23"/>
     </row>
-    <row r="17" spans="5:33" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="5:33" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E17" s="26"/>
       <c r="G17" s="3" t="s">
         <v>27</v>
@@ -1506,7 +2881,7 @@
       </c>
       <c r="AG17" s="23"/>
     </row>
-    <row r="18" spans="5:33" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:33" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="E18" s="26"/>
       <c r="J18" s="3" t="s">
         <v>27</v>
@@ -1533,7 +2908,7 @@
       </c>
       <c r="AG18" s="23"/>
     </row>
-    <row r="19" spans="5:33" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:33" x14ac:dyDescent="0.3">
       <c r="E19" s="26"/>
       <c r="Z19" s="26"/>
       <c r="AC19" t="s">
@@ -1544,7 +2919,7 @@
       </c>
       <c r="AG19" s="23"/>
     </row>
-    <row r="20" spans="5:33" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:33" x14ac:dyDescent="0.3">
       <c r="E20" s="26"/>
       <c r="F20" s="26"/>
       <c r="G20" s="26"/>
@@ -1569,16 +2944,14 @@
       <c r="Z20" s="26"/>
       <c r="AG20" s="23"/>
     </row>
-    <row r="21" spans="5:33" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:33" x14ac:dyDescent="0.3">
       <c r="AG21" s="23"/>
     </row>
-    <row r="22" spans="5:33" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:33" x14ac:dyDescent="0.3">
       <c r="AG22" s="23"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/EL_Electrical/Cellule chrono/Scheme.xlsx
+++ b/EL_Electrical/Cellule chrono/Scheme.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arthu\Documents\Ressources2020\EL_Electrical\Cellule chrono\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D48611-6BF0-493D-A797-26AD698653F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B9E2640-0015-4986-AE1B-D2D59F46572D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{F520CC6F-F712-4636-9B07-CFBBFE9FABF0}"/>
   </bookViews>
@@ -434,7 +434,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -514,7 +514,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
@@ -1023,8 +1022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F136E75F-99A6-4EFF-B183-D9D614ACF065}">
   <dimension ref="A1:AZ43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="AK24" sqref="AK24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1082,6 +1081,11 @@
       <c r="C3" s="31" t="s">
         <v>64</v>
       </c>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
       <c r="J3" s="29"/>
       <c r="K3" s="29"/>
       <c r="L3" s="29"/>
@@ -1138,27 +1142,28 @@
       </c>
     </row>
     <row r="4" spans="1:52" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
       <c r="C4" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="35"/>
-      <c r="S4" s="35"/>
-      <c r="T4" s="35"/>
-      <c r="U4" s="35"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
       <c r="V4" s="29"/>
       <c r="W4" s="29"/>
       <c r="AA4" s="3"/>
@@ -1202,27 +1207,28 @@
       </c>
     </row>
     <row r="5" spans="1:52" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="36"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="37"/>
-      <c r="S5" s="37"/>
-      <c r="T5" s="37"/>
-      <c r="U5" s="35"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="29"/>
       <c r="V5" s="29"/>
       <c r="W5" s="29"/>
       <c r="X5" s="29"/>
@@ -1239,10 +1245,16 @@
       </c>
     </row>
     <row r="6" spans="1:52" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="36"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31" t="s">
         <v>47</v>
       </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
       <c r="J6" s="29"/>
       <c r="K6" s="29"/>
       <c r="L6" s="29"/>
@@ -1253,8 +1265,8 @@
       <c r="Q6" s="29"/>
       <c r="R6" s="29"/>
       <c r="S6" s="29"/>
-      <c r="T6" s="37"/>
-      <c r="U6" s="35"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="29"/>
       <c r="V6" s="29"/>
       <c r="W6" s="29"/>
       <c r="X6" s="29"/>
@@ -1271,28 +1283,28 @@
       </c>
     </row>
     <row r="7" spans="1:52" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="36"/>
       <c r="B7" s="8"/>
       <c r="C7" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
       <c r="N7" s="29"/>
       <c r="O7" s="29"/>
       <c r="P7" s="29"/>
       <c r="Q7" s="29"/>
       <c r="R7" s="29"/>
       <c r="S7" s="29"/>
-      <c r="T7" s="37"/>
-      <c r="U7" s="35"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
       <c r="V7" s="29"/>
       <c r="W7" s="29"/>
       <c r="X7" s="29"/>
@@ -1336,19 +1348,26 @@
       </c>
     </row>
     <row r="8" spans="1:52" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="36"/>
       <c r="B8" s="8"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
       <c r="J8" s="29"/>
       <c r="K8" s="29"/>
       <c r="L8" s="29"/>
-      <c r="M8" s="37"/>
+      <c r="M8" s="29"/>
       <c r="N8" s="29"/>
       <c r="O8" s="29"/>
       <c r="P8" s="29"/>
       <c r="Q8" s="29"/>
       <c r="R8" s="29"/>
       <c r="S8" s="29"/>
-      <c r="T8" s="37"/>
-      <c r="U8" s="35"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="29"/>
       <c r="V8" s="29"/>
       <c r="W8" s="29"/>
       <c r="X8" s="29"/>
@@ -1401,51 +1420,54 @@
       </c>
     </row>
     <row r="9" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="36"/>
       <c r="B9" s="8"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="8"/>
       <c r="G9" s="9" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="I9" s="9" t="s">
         <v>0</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="P9" s="9" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="Q9" s="9" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="R9" s="9" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="S9" s="9" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="T9" s="9" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="U9" s="9" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="W9" s="29"/>
       <c r="AA9" s="5"/>
@@ -1506,9 +1528,27 @@
       </c>
     </row>
     <row r="10" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="36"/>
       <c r="B10" s="8"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
       <c r="W10" s="29"/>
       <c r="AA10" s="5"/>
       <c r="AC10" s="1"/>
@@ -1528,8 +1568,9 @@
       <c r="AR10" s="8"/>
     </row>
     <row r="11" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="7"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="35"/>
       <c r="T11" s="9" t="s">
         <v>26</v>
       </c>
@@ -1565,8 +1606,24 @@
       <c r="AZ11" s="23"/>
     </row>
     <row r="12" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="7"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="35"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
+      <c r="S12" s="36"/>
       <c r="T12" s="9"/>
       <c r="U12" s="9"/>
       <c r="V12" s="9"/>
@@ -1599,7 +1656,24 @@
     </row>
     <row r="13" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
       <c r="T13" s="9"/>
       <c r="U13" s="9"/>
       <c r="V13" s="9"/>
@@ -1625,26 +1699,19 @@
     </row>
     <row r="14" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="8"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
       <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
+      <c r="U14" s="36"/>
       <c r="AA14" s="3"/>
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
@@ -1677,49 +1744,49 @@
     </row>
     <row r="15" spans="1:52" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G15" s="9" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="I15" s="9" t="s">
         <v>0</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N15" s="9" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="P15" s="9" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="Q15" s="9" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="R15" s="9" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="S15" s="9" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="T15" s="9" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="U15" s="9" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="V15" s="1"/>
       <c r="AA15" s="3" t="s">
@@ -1965,10 +2032,10 @@
       <c r="M23" s="5"/>
       <c r="N23" s="34"/>
       <c r="O23" s="29"/>
-      <c r="P23" s="39"/>
-      <c r="Q23" s="39"/>
-      <c r="R23" s="39"/>
-      <c r="S23" s="39"/>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="38"/>
+      <c r="R23" s="38"/>
+      <c r="S23" s="38"/>
       <c r="T23" s="29"/>
       <c r="U23" s="29"/>
       <c r="V23" s="29"/>
@@ -1985,10 +2052,10 @@
       <c r="M24" s="34"/>
       <c r="N24" s="34"/>
       <c r="O24" s="29"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="39"/>
-      <c r="R24" s="39"/>
-      <c r="S24" s="39"/>
+      <c r="P24" s="38"/>
+      <c r="Q24" s="38"/>
+      <c r="R24" s="38"/>
+      <c r="S24" s="38"/>
       <c r="T24" s="29"/>
       <c r="U24" s="29"/>
       <c r="V24" s="29"/>
@@ -2005,10 +2072,10 @@
       <c r="M25" s="29"/>
       <c r="N25" s="29"/>
       <c r="O25" s="29"/>
-      <c r="P25" s="39"/>
-      <c r="Q25" s="39"/>
-      <c r="R25" s="39"/>
-      <c r="S25" s="39"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="38"/>
+      <c r="R25" s="38"/>
+      <c r="S25" s="38"/>
       <c r="T25" s="29"/>
       <c r="U25" s="29"/>
       <c r="V25" s="29"/>
@@ -2022,10 +2089,10 @@
       <c r="M26" s="29"/>
       <c r="N26" s="29"/>
       <c r="O26" s="29"/>
-      <c r="P26" s="39"/>
-      <c r="Q26" s="39"/>
-      <c r="R26" s="39"/>
-      <c r="S26" s="39"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
+      <c r="S26" s="38"/>
       <c r="T26" s="29"/>
       <c r="U26" s="29"/>
       <c r="V26" s="29"/>
@@ -2084,8 +2151,8 @@
       <c r="D28" t="s">
         <v>36</v>
       </c>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
       <c r="I28" s="15"/>
@@ -2107,8 +2174,8 @@
       <c r="D29" t="s">
         <v>36</v>
       </c>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
       <c r="I29" s="15"/>
@@ -2133,8 +2200,8 @@
       <c r="D30" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
       <c r="G30" s="15"/>
       <c r="H30" s="15"/>
       <c r="I30" s="15"/>
@@ -2157,8 +2224,8 @@
       <c r="D31" t="s">
         <v>38</v>
       </c>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
       <c r="G31" s="15"/>
       <c r="H31" s="15"/>
       <c r="I31" s="15"/>

--- a/EL_Electrical/Cellule chrono/Scheme.xlsx
+++ b/EL_Electrical/Cellule chrono/Scheme.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arthu\Documents\Ressources2020\EL_Electrical\Cellule chrono\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B9E2640-0015-4986-AE1B-D2D59F46572D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08C6A5A-C9D0-48C8-B3E9-DE88BC5F2A59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{F520CC6F-F712-4636-9B07-CFBBFE9FABF0}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="23040" windowHeight="12204" xr2:uid="{F520CC6F-F712-4636-9B07-CFBBFE9FABF0}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -1023,7 +1023,7 @@
   <dimension ref="A1:AZ43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:D10"/>
+      <selection activeCell="W7" sqref="W7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
